--- a/UA_results.xlsx
+++ b/UA_results.xlsx
@@ -4760,10 +4760,11 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5088,7 +5089,7 @@
     <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19178,7 +19179,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="J2" t="s">
@@ -19189,7 +19190,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
@@ -19221,7 +19222,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J4" t="s">
@@ -19232,7 +19233,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J5" t="s">
@@ -19243,7 +19244,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
@@ -19275,7 +19276,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
@@ -19310,7 +19311,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J8" t="s">
@@ -19321,7 +19322,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="J9" t="s">
@@ -19332,7 +19333,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
@@ -19367,7 +19368,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
@@ -19378,7 +19379,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>1033</v>
       </c>
       <c r="J12" t="s">
@@ -19389,7 +19390,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
@@ -19424,7 +19425,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J14" t="s">
@@ -19435,7 +19436,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>1039</v>
       </c>
       <c r="J15" t="s">
@@ -19446,7 +19447,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
@@ -19481,7 +19482,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J17" t="s">
@@ -19492,7 +19493,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J18" t="s">
@@ -19503,7 +19504,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19" t="s">
@@ -19538,7 +19539,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
@@ -19570,7 +19571,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
@@ -19605,7 +19606,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B22" t="s">
@@ -19637,7 +19638,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J23" t="s">
@@ -19648,7 +19649,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="J24" t="s">
@@ -19659,7 +19660,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B25" t="s">
@@ -19691,7 +19692,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J26" t="s">
@@ -19702,7 +19703,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>1050</v>
       </c>
       <c r="J27" t="s">
@@ -19713,7 +19714,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B28" t="s">
@@ -19745,7 +19746,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J29" t="s">
@@ -19756,7 +19757,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>1055</v>
       </c>
       <c r="J30" t="s">
@@ -19767,7 +19768,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B31" t="s">
@@ -19802,7 +19803,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J32" t="s">
@@ -19813,7 +19814,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="J33" t="s">
@@ -19824,7 +19825,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B34" t="s">
@@ -19859,7 +19860,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J35" t="s">
@@ -19870,7 +19871,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J36" t="s">
@@ -19881,7 +19882,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B37" t="s">
@@ -19913,7 +19914,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B38" t="s">
@@ -19948,7 +19949,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B39" t="s">
@@ -19980,7 +19981,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B40" t="s">
@@ -20015,7 +20016,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B41" t="s">
@@ -20047,7 +20048,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J42" t="s">
@@ -20058,7 +20059,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J43" t="s">
@@ -20069,7 +20070,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B44" t="s">
@@ -20101,7 +20102,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B45" t="s">
@@ -20136,7 +20137,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J46" t="s">
@@ -20147,7 +20148,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="J47" t="s">
@@ -20158,7 +20159,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B48" t="s">
@@ -20190,7 +20191,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J49" t="s">
@@ -20201,7 +20202,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J50" t="s">
@@ -20212,7 +20213,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B51" t="s">
@@ -20247,7 +20248,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B52" t="s">
@@ -20279,7 +20280,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B53" t="s">
@@ -20314,7 +20315,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B54" t="s">
@@ -20346,7 +20347,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J55" t="s">
@@ -20357,7 +20358,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
       <c r="J56" t="s">
@@ -20368,7 +20369,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B57" t="s">
@@ -20403,7 +20404,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B58" t="s">
@@ -20438,7 +20439,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J59" t="s">
@@ -20449,7 +20450,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
       <c r="J60" t="s">
@@ -20460,7 +20461,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B61" t="s">
@@ -20492,7 +20493,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B62" t="s">
@@ -20524,7 +20525,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B63" t="s">
@@ -20556,7 +20557,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B64" t="s">
@@ -20588,7 +20589,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J65" t="s">
@@ -20599,7 +20600,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
       <c r="J66" t="s">
@@ -20610,7 +20611,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B67" t="s">
@@ -20645,7 +20646,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B68" t="s">
@@ -20680,7 +20681,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J69" t="s">
@@ -20691,7 +20692,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>1069</v>
       </c>
       <c r="J70" t="s">
@@ -20702,7 +20703,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B71" t="s">
@@ -20734,7 +20735,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J72" t="s">
@@ -20745,7 +20746,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J73" t="s">
@@ -20756,7 +20757,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B74" t="s">
@@ -20791,7 +20792,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B75" t="s">
@@ -20823,7 +20824,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J76" t="s">
@@ -20834,7 +20835,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>1074</v>
       </c>
       <c r="J77" t="s">
@@ -20845,7 +20846,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B78" t="s">
@@ -20877,7 +20878,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J79" t="s">
@@ -20888,7 +20889,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>1079</v>
       </c>
       <c r="J80" t="s">
@@ -20899,7 +20900,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B81" t="s">
@@ -20931,7 +20932,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J82" t="s">
@@ -20942,7 +20943,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="J83" t="s">
@@ -20953,7 +20954,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B84" t="s">
@@ -20988,7 +20989,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J85" t="s">
@@ -20999,7 +21000,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>106</v>
       </c>
       <c r="J86" t="s">
@@ -21010,7 +21011,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B87" t="s">
@@ -21045,7 +21046,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B88" t="s">
@@ -21077,7 +21078,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B89" t="s">
@@ -21109,7 +21110,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B90" t="s">
@@ -21141,7 +21142,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B91" t="s">
@@ -21176,7 +21177,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J92" t="s">
@@ -21187,7 +21188,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="J93" t="s">
@@ -21198,7 +21199,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B94" t="s">
@@ -21230,7 +21231,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J95" t="s">
@@ -21241,7 +21242,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="J96" t="s">
@@ -21252,7 +21253,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B97" t="s">
@@ -21287,7 +21288,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J98" t="s">
@@ -21298,7 +21299,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>119</v>
       </c>
       <c r="J99" t="s">
@@ -21309,7 +21310,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B100" t="s">
@@ -21344,7 +21345,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B101" t="s">
@@ -21376,7 +21377,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B102" t="s">
@@ -21411,7 +21412,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B103" t="s">
@@ -21443,7 +21444,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B104" t="s">
@@ -21475,7 +21476,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J105" t="s">
@@ -21486,7 +21487,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>1097</v>
       </c>
       <c r="J106" t="s">
@@ -21497,7 +21498,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B107" t="s">
@@ -21529,7 +21530,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J108" t="s">
@@ -21540,7 +21541,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="J109" t="s">
@@ -21551,7 +21552,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B110" t="s">
@@ -21583,7 +21584,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J111" t="s">
@@ -21594,7 +21595,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>1107</v>
       </c>
       <c r="J112" t="s">
@@ -21605,7 +21606,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B113" t="s">
@@ -21640,7 +21641,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J114" t="s">
@@ -21651,7 +21652,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J115" t="s">
@@ -21662,7 +21663,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B116" t="s">
@@ -21697,7 +21698,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B117" t="s">
@@ -21729,7 +21730,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B118" t="s">
@@ -21764,7 +21765,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B119" t="s">
@@ -21796,7 +21797,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B120" t="s">
@@ -21828,7 +21829,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J121" t="s">
@@ -21839,7 +21840,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>1111</v>
       </c>
       <c r="J122" t="s">
@@ -21850,7 +21851,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B123" t="s">
@@ -21882,7 +21883,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J124" t="s">
@@ -21893,7 +21894,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>1116</v>
       </c>
       <c r="J125" t="s">
@@ -21904,7 +21905,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B126" t="s">
@@ -21939,7 +21940,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J127" t="s">
@@ -21950,7 +21951,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J128" t="s">
@@ -21961,7 +21962,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B129" t="s">
@@ -21996,7 +21997,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B130" t="s">
@@ -22028,7 +22029,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B131" t="s">
@@ -22063,7 +22064,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B132" t="s">
@@ -22095,7 +22096,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B133" t="s">
@@ -22127,7 +22128,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J134" t="s">
@@ -22138,7 +22139,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="1" t="s">
         <v>1120</v>
       </c>
       <c r="J135" t="s">
@@ -22149,7 +22150,7 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B136" t="s">
@@ -22181,7 +22182,7 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J137" t="s">
@@ -22192,7 +22193,7 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J138" t="s">
@@ -22203,7 +22204,7 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B139" t="s">
@@ -22238,7 +22239,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B140" t="s">
@@ -22270,7 +22271,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J141" t="s">
@@ -22281,7 +22282,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="1" t="s">
         <v>1125</v>
       </c>
       <c r="J142" t="s">
@@ -22292,7 +22293,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B143" t="s">
@@ -22327,7 +22328,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J144" t="s">
@@ -22338,7 +22339,7 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J145" t="s">
@@ -22349,7 +22350,7 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B146" t="s">
@@ -22381,7 +22382,7 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B147" t="s">
@@ -22413,7 +22414,7 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J148" t="s">
@@ -22424,7 +22425,7 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="J149" t="s">
@@ -22435,7 +22436,7 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B150" t="s">
@@ -22470,7 +22471,7 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J151" t="s">
@@ -22481,7 +22482,7 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J152" t="s">
@@ -22492,7 +22493,7 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B153" t="s">
@@ -22524,7 +22525,7 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B154" t="s">
@@ -22559,7 +22560,7 @@
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B155" t="s">
@@ -22591,7 +22592,7 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B156" t="s">
@@ -22623,7 +22624,7 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B157" t="s">
@@ -22658,7 +22659,7 @@
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B158" t="s">
@@ -22693,7 +22694,7 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B159" t="s">
@@ -22728,7 +22729,7 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J160" t="s">
@@ -22739,7 +22740,7 @@
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="1" t="s">
         <v>1133</v>
       </c>
       <c r="J161" t="s">
@@ -22750,7 +22751,7 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B162" t="s">
@@ -22782,7 +22783,7 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J163" t="s">
@@ -22793,7 +22794,7 @@
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="1" t="s">
         <v>1138</v>
       </c>
       <c r="J164" t="s">
@@ -22804,7 +22805,7 @@
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B165" t="s">
@@ -22836,7 +22837,7 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J166" t="s">
@@ -22847,7 +22848,7 @@
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" s="1" t="s">
         <v>1143</v>
       </c>
       <c r="J167" t="s">
@@ -22858,7 +22859,7 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B168" t="s">
@@ -22890,7 +22891,7 @@
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J169" t="s">
@@ -22901,7 +22902,7 @@
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="1" t="s">
         <v>190</v>
       </c>
       <c r="J170" t="s">
@@ -22912,7 +22913,7 @@
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B171" t="s">
@@ -22947,7 +22948,7 @@
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B172" t="s">
@@ -22979,7 +22980,7 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B173" t="s">
@@ -23011,7 +23012,7 @@
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B174" t="s">
@@ -23043,7 +23044,7 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B175" t="s">
@@ -23078,7 +23079,7 @@
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J176" t="s">
@@ -23089,7 +23090,7 @@
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="1" t="s">
         <v>1148</v>
       </c>
       <c r="J177" t="s">
@@ -23100,7 +23101,7 @@
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B178" t="s">
@@ -23132,7 +23133,7 @@
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J179" t="s">
@@ -23143,7 +23144,7 @@
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="J180" t="s">
@@ -23154,7 +23155,7 @@
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B181" t="s">
@@ -23186,7 +23187,7 @@
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J182" t="s">
@@ -23197,7 +23198,7 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="1" t="s">
         <v>1158</v>
       </c>
       <c r="J183" t="s">
@@ -23208,7 +23209,7 @@
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B184" t="s">
@@ -23240,7 +23241,7 @@
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J185" t="s">
@@ -23251,7 +23252,7 @@
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="1" t="s">
         <v>1163</v>
       </c>
       <c r="J186" t="s">
@@ -23262,7 +23263,7 @@
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B187" t="s">
@@ -23297,7 +23298,7 @@
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J188" t="s">
@@ -23308,7 +23309,7 @@
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="1" t="s">
         <v>203</v>
       </c>
       <c r="J189" t="s">
@@ -23319,7 +23320,7 @@
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B190" t="s">
@@ -23351,7 +23352,7 @@
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B191" t="s">
@@ -23383,7 +23384,7 @@
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J192" t="s">
@@ -23394,7 +23395,7 @@
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="1" t="s">
         <v>1167</v>
       </c>
       <c r="J193" t="s">
@@ -23405,7 +23406,7 @@
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B194" t="s">
@@ -23440,7 +23441,7 @@
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J195" t="s">
@@ -23451,7 +23452,7 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="1" t="s">
         <v>210</v>
       </c>
       <c r="J196" t="s">
@@ -23462,7 +23463,7 @@
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B197" t="s">
@@ -23494,7 +23495,7 @@
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B198" t="s">
@@ -23526,7 +23527,7 @@
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B199" t="s">
@@ -23561,7 +23562,7 @@
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B200" t="s">
@@ -23593,7 +23594,7 @@
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B201" t="s">
@@ -23628,7 +23629,7 @@
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J202" t="s">
@@ -23639,7 +23640,7 @@
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="1" t="s">
         <v>223</v>
       </c>
       <c r="J203" t="s">
@@ -23650,7 +23651,7 @@
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B204" t="s">
@@ -23685,7 +23686,7 @@
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B205" t="s">
@@ -23720,7 +23721,7 @@
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B206" t="s">
@@ -23752,7 +23753,7 @@
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J207" t="s">
@@ -23763,7 +23764,7 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="1" t="s">
         <v>1171</v>
       </c>
       <c r="J208" t="s">
@@ -23774,7 +23775,7 @@
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B209" t="s">
@@ -23809,7 +23810,7 @@
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J210" t="s">
@@ -23820,7 +23821,7 @@
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="J211" t="s">
@@ -23831,7 +23832,7 @@
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B212" t="s">
@@ -23863,7 +23864,7 @@
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J213" t="s">
@@ -23874,7 +23875,7 @@
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="1" t="s">
         <v>233</v>
       </c>
       <c r="J214" t="s">
@@ -23885,7 +23886,7 @@
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B215" t="s">
@@ -23920,7 +23921,7 @@
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B216" t="s">
@@ -23952,7 +23953,7 @@
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B217" t="s">
@@ -23984,7 +23985,7 @@
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B218" t="s">
@@ -24016,7 +24017,7 @@
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B219" t="s">
@@ -24048,7 +24049,7 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J220" t="s">
@@ -24059,7 +24060,7 @@
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="J221" t="s">
@@ -24070,7 +24071,7 @@
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B222" t="s">
@@ -24105,7 +24106,7 @@
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J223" t="s">
@@ -24116,7 +24117,7 @@
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" s="1" t="s">
         <v>246</v>
       </c>
       <c r="J224" t="s">
@@ -24127,7 +24128,7 @@
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B225" t="s">
@@ -24162,7 +24163,7 @@
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B226" t="s">
@@ -24194,7 +24195,7 @@
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B227" t="s">
@@ -24229,7 +24230,7 @@
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B228" t="s">
@@ -24261,7 +24262,7 @@
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B229" t="s">
@@ -24293,7 +24294,7 @@
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J230" t="s">
@@ -24304,7 +24305,7 @@
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231" s="1" t="s">
         <v>1183</v>
       </c>
       <c r="J231" t="s">
@@ -24315,7 +24316,7 @@
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B232" t="s">
@@ -24347,7 +24348,7 @@
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J233" t="s">
@@ -24358,7 +24359,7 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234" s="1" t="s">
         <v>1188</v>
       </c>
       <c r="J234" t="s">
@@ -24369,7 +24370,7 @@
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B235" t="s">
@@ -24401,7 +24402,7 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J236" t="s">
@@ -24412,7 +24413,7 @@
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="A237" s="1" t="s">
         <v>259</v>
       </c>
       <c r="J237" t="s">
@@ -24423,7 +24424,7 @@
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="A238" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B238" t="s">
@@ -24458,7 +24459,7 @@
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="A239" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B239" t="s">
@@ -24493,7 +24494,7 @@
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="A240" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J240" t="s">
@@ -24504,7 +24505,7 @@
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="A241" s="1" t="s">
         <v>268</v>
       </c>
       <c r="J241" t="s">
@@ -24515,7 +24516,7 @@
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="A242" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B242" t="s">
@@ -24547,7 +24548,7 @@
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="A243" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B243" t="s">
@@ -24582,7 +24583,7 @@
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="A244" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J244" t="s">
@@ -24593,7 +24594,7 @@
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245" s="1" t="s">
         <v>1193</v>
       </c>
       <c r="J245" t="s">
@@ -24604,7 +24605,7 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="A246" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B246" t="s">
@@ -24639,7 +24640,7 @@
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="A247" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J247" t="s">
@@ -24650,7 +24651,7 @@
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="A248" s="1" t="s">
         <v>275</v>
       </c>
       <c r="J248" t="s">
@@ -24661,7 +24662,7 @@
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="A249" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B249" t="s">
@@ -24693,7 +24694,7 @@
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="A250" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B250" t="s">
@@ -24728,7 +24729,7 @@
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="A251" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B251" t="s">
@@ -24760,7 +24761,7 @@
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="A252" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B252" t="s">
@@ -24792,7 +24793,7 @@
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="A253" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B253" t="s">
@@ -24827,7 +24828,7 @@
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="A254" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B254" t="s">
@@ -24862,7 +24863,7 @@
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="A255" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J255" t="s">
@@ -24873,7 +24874,7 @@
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="A256" s="1" t="s">
         <v>1197</v>
       </c>
       <c r="J256" t="s">
@@ -24884,7 +24885,7 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="A257" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B257" t="s">
@@ -24919,7 +24920,7 @@
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="A258" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J258" t="s">
@@ -24930,7 +24931,7 @@
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="A259" s="1" t="s">
         <v>1202</v>
       </c>
       <c r="J259" t="s">
@@ -24941,7 +24942,7 @@
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="A260" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B260" t="s">
@@ -24976,7 +24977,7 @@
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="A261" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J261" t="s">
@@ -24987,7 +24988,7 @@
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="A262" s="1" t="s">
         <v>291</v>
       </c>
       <c r="J262" t="s">
@@ -24998,7 +24999,7 @@
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="A263" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B263" t="s">
@@ -25033,7 +25034,7 @@
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="A264" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B264" t="s">
@@ -25065,7 +25066,7 @@
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="A265" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B265" t="s">
@@ -25100,7 +25101,7 @@
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="A266" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B266" t="s">
@@ -25132,7 +25133,7 @@
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="A267" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B267" t="s">
@@ -25164,7 +25165,7 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="A268" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J268" t="s">
@@ -25175,7 +25176,7 @@
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="A269" s="1" t="s">
         <v>304</v>
       </c>
       <c r="J269" t="s">
@@ -25186,7 +25187,7 @@
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="A270" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B270" t="s">
@@ -25221,7 +25222,7 @@
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="A271" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B271" t="s">
@@ -25256,7 +25257,7 @@
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="A272" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J272" t="s">
@@ -25267,7 +25268,7 @@
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="A273" s="1" t="s">
         <v>314</v>
       </c>
       <c r="J273" t="s">
@@ -25278,7 +25279,7 @@
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="A274" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B274" t="s">
@@ -25310,7 +25311,7 @@
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="A275" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B275" t="s">
@@ -25345,7 +25346,7 @@
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="A276" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B276" t="s">
@@ -25380,7 +25381,7 @@
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="A277" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B277" t="s">
@@ -25415,7 +25416,7 @@
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="A278" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B278" t="s">
@@ -25447,7 +25448,7 @@
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="A279" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B279" t="s">
@@ -25479,7 +25480,7 @@
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="A280" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J280" t="s">
@@ -25490,7 +25491,7 @@
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="A281" s="1" t="s">
         <v>1206</v>
       </c>
       <c r="J281" t="s">
@@ -25501,7 +25502,7 @@
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="A282" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B282" t="s">
@@ -25533,7 +25534,7 @@
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="A283" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J283" t="s">
@@ -25544,7 +25545,7 @@
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="A284" s="1" t="s">
         <v>328</v>
       </c>
       <c r="J284" t="s">
@@ -25555,7 +25556,7 @@
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="A285" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B285" t="s">
@@ -25590,7 +25591,7 @@
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="A286" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B286" t="s">
@@ -25625,7 +25626,7 @@
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="A287" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J287" t="s">
@@ -25636,7 +25637,7 @@
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="A288" s="1" t="s">
         <v>335</v>
       </c>
       <c r="J288" t="s">
@@ -25647,7 +25648,7 @@
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="A289" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B289" t="s">
@@ -25682,7 +25683,7 @@
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="A290" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B290" t="s">
@@ -25714,7 +25715,7 @@
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="A291" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B291" t="s">
@@ -25749,7 +25750,7 @@
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="A292" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B292" t="s">
@@ -25784,7 +25785,7 @@
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="A293" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B293" t="s">
@@ -25816,7 +25817,7 @@
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="A294" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J294" t="s">
@@ -25827,7 +25828,7 @@
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="A295" s="1" t="s">
         <v>347</v>
       </c>
       <c r="J295" t="s">
@@ -25838,7 +25839,7 @@
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="A296" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B296" t="s">
@@ -25873,7 +25874,7 @@
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="A297" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B297" t="s">
@@ -25908,7 +25909,7 @@
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="A298" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J298" t="s">
@@ -25919,7 +25920,7 @@
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="A299" s="1" t="s">
         <v>354</v>
       </c>
       <c r="J299" t="s">
@@ -25930,7 +25931,7 @@
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="A300" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B300" t="s">
@@ -25962,7 +25963,7 @@
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="A301" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B301" t="s">
@@ -25997,7 +25998,7 @@
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="A302" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B302" t="s">
@@ -26032,7 +26033,7 @@
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="A303" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B303" t="s">
@@ -26067,7 +26068,7 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="A304" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B304" t="s">
@@ -26099,7 +26100,7 @@
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="A305" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J305" t="s">
@@ -26110,7 +26111,7 @@
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="A306" s="1" t="s">
         <v>1210</v>
       </c>
       <c r="J306" t="s">
@@ -26121,7 +26122,7 @@
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="A307" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B307" t="s">
@@ -26156,7 +26157,7 @@
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="A308" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J308" t="s">
@@ -26167,7 +26168,7 @@
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="A309" s="1" t="s">
         <v>366</v>
       </c>
       <c r="J309" t="s">
@@ -26178,7 +26179,7 @@
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="A310" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B310" t="s">
@@ -26213,7 +26214,7 @@
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="A311" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B311" t="s">
@@ -26245,7 +26246,7 @@
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="A312" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B312" t="s">
@@ -26280,7 +26281,7 @@
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="A313" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B313" t="s">
@@ -26312,7 +26313,7 @@
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="A314" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B314" t="s">
@@ -26347,7 +26348,7 @@
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="A315" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B315" t="s">
@@ -26382,7 +26383,7 @@
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="A316" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J316" t="s">
@@ -26393,7 +26394,7 @@
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="A317" s="1" t="s">
         <v>1214</v>
       </c>
       <c r="J317" t="s">
@@ -26404,7 +26405,7 @@
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="A318" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B318" t="s">
@@ -26439,7 +26440,7 @@
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="A319" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J319" t="s">
@@ -26450,7 +26451,7 @@
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="A320" s="1" t="s">
         <v>381</v>
       </c>
       <c r="J320" t="s">
@@ -26461,7 +26462,7 @@
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="A321" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B321" t="s">
@@ -26496,7 +26497,7 @@
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="A322" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B322" t="s">
@@ -26528,7 +26529,7 @@
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="A323" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B323" t="s">
@@ -26560,7 +26561,7 @@
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="A324" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B324" t="s">
@@ -26595,7 +26596,7 @@
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="A325" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B325" t="s">
@@ -26627,7 +26628,7 @@
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="A326" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J326" t="s">
@@ -26638,7 +26639,7 @@
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="A327" s="1" t="s">
         <v>1218</v>
       </c>
       <c r="J327" t="s">
@@ -26649,7 +26650,7 @@
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="A328" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B328" t="s">
@@ -26681,7 +26682,7 @@
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="A329" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J329" t="s">
@@ -26692,7 +26693,7 @@
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="A330" s="1" t="s">
         <v>1224</v>
       </c>
       <c r="J330" t="s">
@@ -26703,7 +26704,7 @@
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="A331" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B331" t="s">
@@ -26738,7 +26739,7 @@
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="A332" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J332" t="s">
@@ -26749,7 +26750,7 @@
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="A333" s="1" t="s">
         <v>1229</v>
       </c>
       <c r="J333" t="s">
@@ -26760,7 +26761,7 @@
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="A334" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B334" t="s">
@@ -26795,7 +26796,7 @@
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="A335" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J335" t="s">
@@ -26806,7 +26807,7 @@
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="A336" s="1" t="s">
         <v>1234</v>
       </c>
       <c r="J336" t="s">
@@ -26817,7 +26818,7 @@
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="A337" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B337" t="s">
@@ -26852,7 +26853,7 @@
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="A338" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J338" t="s">
@@ -26863,7 +26864,7 @@
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="A339" s="1" t="s">
         <v>1239</v>
       </c>
       <c r="J339" t="s">
@@ -26874,7 +26875,7 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="A340" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B340" t="s">
@@ -26906,7 +26907,7 @@
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="A341" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J341" t="s">
@@ -26917,7 +26918,7 @@
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="A342" s="1" t="s">
         <v>1243</v>
       </c>
       <c r="J342" t="s">
@@ -26928,7 +26929,7 @@
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="A343" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B343" t="s">
@@ -26960,7 +26961,7 @@
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="A344" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J344" t="s">
@@ -26971,7 +26972,7 @@
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="A345" s="1" t="s">
         <v>1248</v>
       </c>
       <c r="J345" t="s">
@@ -26982,7 +26983,7 @@
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="A346" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B346" t="s">
@@ -27014,7 +27015,7 @@
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="A347" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J347" t="s">
@@ -27025,7 +27026,7 @@
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+      <c r="A348" s="1" t="s">
         <v>1253</v>
       </c>
       <c r="J348" t="s">
@@ -27036,7 +27037,7 @@
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+      <c r="A349" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B349" t="s">
@@ -27068,7 +27069,7 @@
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+      <c r="A350" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J350" t="s">
@@ -27079,7 +27080,7 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+      <c r="A351" s="1" t="s">
         <v>394</v>
       </c>
       <c r="J351" t="s">
@@ -27090,7 +27091,7 @@
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="A352" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B352" t="s">
@@ -27125,7 +27126,7 @@
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="A353" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B353" t="s">
@@ -27160,7 +27161,7 @@
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="A354" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B354" t="s">
@@ -27195,7 +27196,7 @@
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="A355" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B355" t="s">
@@ -27230,7 +27231,7 @@
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="A356" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B356" t="s">
@@ -27265,7 +27266,7 @@
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="A357" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B357" t="s">
@@ -27300,7 +27301,7 @@
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+      <c r="A358" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B358" t="s">
@@ -27335,7 +27336,7 @@
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="A359" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J359" t="s">
@@ -27346,7 +27347,7 @@
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="A360" s="1" t="s">
         <v>411</v>
       </c>
       <c r="J360" t="s">
@@ -27357,7 +27358,7 @@
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="A361" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B361" t="s">
@@ -27392,7 +27393,7 @@
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+      <c r="A362" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B362" t="s">
@@ -27424,7 +27425,7 @@
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+      <c r="A363" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B363" t="s">
@@ -27459,7 +27460,7 @@
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="A364" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J364" t="s">
@@ -27470,7 +27471,7 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="A365" s="1" t="s">
         <v>422</v>
       </c>
       <c r="J365" t="s">
@@ -27481,7 +27482,7 @@
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+      <c r="A366" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B366" t="s">
@@ -27516,7 +27517,7 @@
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="A367" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B367" t="s">
@@ -27548,7 +27549,7 @@
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+      <c r="A368" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B368" t="s">
@@ -27580,7 +27581,7 @@
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+      <c r="A369" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B369" t="s">
@@ -27612,7 +27613,7 @@
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="A370" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B370" t="s">
@@ -27644,7 +27645,7 @@
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="A371" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J371" t="s">
@@ -27655,7 +27656,7 @@
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="A372" s="1" t="s">
         <v>1257</v>
       </c>
       <c r="J372" t="s">
@@ -27666,7 +27667,7 @@
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+      <c r="A373" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B373" t="s">
@@ -27698,7 +27699,7 @@
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="A374" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J374" t="s">
@@ -27709,7 +27710,7 @@
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="A375" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="J375" t="s">
@@ -27720,7 +27721,7 @@
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="A376" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B376" t="s">
@@ -27752,7 +27753,7 @@
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+      <c r="A377" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J377" t="s">
@@ -27763,7 +27764,7 @@
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+      <c r="A378" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="J378" t="s">
@@ -27774,7 +27775,7 @@
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+      <c r="A379" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B379" t="s">
@@ -27809,7 +27810,7 @@
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+      <c r="A380" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J380" t="s">
@@ -27820,7 +27821,7 @@
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
+      <c r="A381" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="J381" t="s">
@@ -27831,7 +27832,7 @@
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
+      <c r="A382" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B382" t="s">
@@ -27866,7 +27867,7 @@
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+      <c r="A383" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J383" t="s">
@@ -27877,7 +27878,7 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+      <c r="A384" s="1" t="s">
         <v>434</v>
       </c>
       <c r="J384" t="s">
@@ -27888,7 +27889,7 @@
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+      <c r="A385" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B385" t="s">
@@ -27920,7 +27921,7 @@
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+      <c r="A386" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B386" t="s">
@@ -27952,7 +27953,7 @@
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+      <c r="A387" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B387" t="s">
@@ -27984,7 +27985,7 @@
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+      <c r="A388" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J388" t="s">
@@ -27995,7 +27996,7 @@
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+      <c r="A389" s="1" t="s">
         <v>1276</v>
       </c>
       <c r="J389" t="s">
@@ -28006,7 +28007,7 @@
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="A390" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B390" t="s">
@@ -28041,7 +28042,7 @@
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+      <c r="A391" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J391" t="s">
@@ -28052,7 +28053,7 @@
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+      <c r="A392" s="1" t="s">
         <v>443</v>
       </c>
       <c r="J392" t="s">
@@ -28063,7 +28064,7 @@
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+      <c r="A393" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B393" t="s">
@@ -28095,7 +28096,7 @@
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+      <c r="A394" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B394" t="s">
@@ -28130,7 +28131,7 @@
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+      <c r="A395" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B395" t="s">
@@ -28162,7 +28163,7 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+      <c r="A396" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B396" t="s">
@@ -28197,7 +28198,7 @@
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="A397" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B397" t="s">
@@ -28232,7 +28233,7 @@
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+      <c r="A398" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B398" t="s">
@@ -28267,7 +28268,7 @@
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="A399" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J399" t="s">
@@ -28278,7 +28279,7 @@
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+      <c r="A400" s="1" t="s">
         <v>458</v>
       </c>
       <c r="J400" t="s">
@@ -28289,7 +28290,7 @@
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+      <c r="A401" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B401" t="s">
@@ -28321,7 +28322,7 @@
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="A402" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B402" t="s">
@@ -28353,7 +28354,7 @@
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+      <c r="A403" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B403" t="s">
@@ -28388,7 +28389,7 @@
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="A404" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J404" t="s">
@@ -28399,7 +28400,7 @@
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+      <c r="A405" s="1" t="s">
         <v>467</v>
       </c>
       <c r="J405" t="s">
@@ -28410,7 +28411,7 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="A406" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B406" t="s">
@@ -28442,7 +28443,7 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="A407" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B407" t="s">
@@ -28477,7 +28478,7 @@
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+      <c r="A408" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J408" t="s">
@@ -28488,7 +28489,7 @@
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+      <c r="A409" s="1" t="s">
         <v>474</v>
       </c>
       <c r="J409" t="s">
@@ -28499,7 +28500,7 @@
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+      <c r="A410" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B410" t="s">
@@ -28534,7 +28535,7 @@
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+      <c r="A411" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B411" t="s">
@@ -28569,7 +28570,7 @@
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+      <c r="A412" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J412" t="s">
@@ -28580,7 +28581,7 @@
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+      <c r="A413" s="1" t="s">
         <v>1280</v>
       </c>
       <c r="J413" t="s">
@@ -28591,7 +28592,7 @@
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+      <c r="A414" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B414" t="s">
@@ -28626,7 +28627,7 @@
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+      <c r="A415" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J415" t="s">
@@ -28637,7 +28638,7 @@
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
+      <c r="A416" s="1" t="s">
         <v>481</v>
       </c>
       <c r="J416" t="s">
@@ -28648,7 +28649,7 @@
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+      <c r="A417" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B417" t="s">
@@ -28680,7 +28681,7 @@
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+      <c r="A418" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B418" t="s">
@@ -28712,7 +28713,7 @@
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+      <c r="A419" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J419" t="s">
@@ -28723,7 +28724,7 @@
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+      <c r="A420" s="1" t="s">
         <v>487</v>
       </c>
       <c r="J420" t="s">
@@ -28734,7 +28735,7 @@
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+      <c r="A421" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B421" t="s">
@@ -28769,7 +28770,7 @@
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+      <c r="A422" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B422" t="s">
@@ -28804,7 +28805,7 @@
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+      <c r="A423" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J423" t="s">
@@ -28815,7 +28816,7 @@
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+      <c r="A424" s="1" t="s">
         <v>494</v>
       </c>
       <c r="J424" t="s">
@@ -28826,7 +28827,7 @@
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+      <c r="A425" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B425" t="s">
@@ -28858,7 +28859,7 @@
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+      <c r="A426" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B426" t="s">
@@ -28893,7 +28894,7 @@
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+      <c r="A427" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B427" t="s">
@@ -28928,7 +28929,7 @@
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+      <c r="A428" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B428" t="s">
@@ -28963,7 +28964,7 @@
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+      <c r="A429" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J429" t="s">
@@ -28974,7 +28975,7 @@
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+      <c r="A430" s="1" t="s">
         <v>505</v>
       </c>
       <c r="J430" t="s">
@@ -28985,7 +28986,7 @@
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+      <c r="A431" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B431" t="s">
@@ -29017,7 +29018,7 @@
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+      <c r="A432" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B432" t="s">
@@ -29052,7 +29053,7 @@
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+      <c r="A433" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B433" t="s">
@@ -29087,7 +29088,7 @@
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
+      <c r="A434" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B434" t="s">
@@ -29122,7 +29123,7 @@
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+      <c r="A435" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J435" t="s">
@@ -29133,7 +29134,7 @@
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+      <c r="A436" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="J436" t="s">
@@ -29144,7 +29145,7 @@
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
+      <c r="A437" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B437" t="s">
@@ -29179,7 +29180,7 @@
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+      <c r="A438" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J438" t="s">
@@ -29190,7 +29191,7 @@
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
+      <c r="A439" s="1" t="s">
         <v>516</v>
       </c>
       <c r="J439" t="s">
@@ -29201,7 +29202,7 @@
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
+      <c r="A440" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B440" t="s">
@@ -29233,7 +29234,7 @@
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
+      <c r="A441" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B441" t="s">
@@ -29268,7 +29269,7 @@
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
+      <c r="A442" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B442" t="s">
@@ -29303,7 +29304,7 @@
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
+      <c r="A443" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B443" t="s">
@@ -29335,7 +29336,7 @@
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
+      <c r="A444" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B444" t="s">
@@ -29370,7 +29371,7 @@
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
+      <c r="A445" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B445" t="s">
@@ -29405,7 +29406,7 @@
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
+      <c r="A446" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J446" t="s">
@@ -29416,7 +29417,7 @@
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+      <c r="A447" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="J447" t="s">
@@ -29427,7 +29428,7 @@
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
+      <c r="A448" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B448" t="s">
@@ -29459,7 +29460,7 @@
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
+      <c r="A449" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J449" t="s">
@@ -29470,7 +29471,7 @@
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
+      <c r="A450" s="1" t="s">
         <v>531</v>
       </c>
       <c r="J450" t="s">
@@ -29481,7 +29482,7 @@
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
+      <c r="A451" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B451" t="s">
@@ -29516,7 +29517,7 @@
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
+      <c r="A452" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B452" t="s">
@@ -29551,7 +29552,7 @@
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
+      <c r="A453" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B453" t="s">
@@ -29586,7 +29587,7 @@
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
+      <c r="A454" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J454" t="s">
@@ -29597,7 +29598,7 @@
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+      <c r="A455" s="1" t="s">
         <v>541</v>
       </c>
       <c r="J455" t="s">
@@ -29608,7 +29609,7 @@
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
+      <c r="A456" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B456" t="s">
@@ -29640,7 +29641,7 @@
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+      <c r="A457" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B457" t="s">
@@ -29672,7 +29673,7 @@
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
+      <c r="A458" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J458" t="s">
@@ -29683,7 +29684,7 @@
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+      <c r="A459" s="1" t="s">
         <v>547</v>
       </c>
       <c r="J459" t="s">
@@ -29694,7 +29695,7 @@
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
+      <c r="A460" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B460" t="s">
@@ -29729,7 +29730,7 @@
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
+      <c r="A461" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B461" t="s">
@@ -29764,7 +29765,7 @@
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
+      <c r="A462" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B462" t="s">
@@ -29796,7 +29797,7 @@
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+      <c r="A463" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J463" t="s">
@@ -29807,7 +29808,7 @@
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
+      <c r="A464" s="1" t="s">
         <v>556</v>
       </c>
       <c r="J464" t="s">
@@ -29818,7 +29819,7 @@
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
+      <c r="A465" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B465" t="s">
@@ -29853,7 +29854,7 @@
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
+      <c r="A466" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B466" t="s">
@@ -29885,7 +29886,7 @@
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+      <c r="A467" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J467" t="s">
@@ -29896,7 +29897,7 @@
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
+      <c r="A468" s="1" t="s">
         <v>1294</v>
       </c>
       <c r="J468" t="s">
@@ -29907,7 +29908,7 @@
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
+      <c r="A469" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B469" t="s">
@@ -29939,7 +29940,7 @@
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
+      <c r="A470" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J470" t="s">
@@ -29950,7 +29951,7 @@
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
+      <c r="A471" s="1" t="s">
         <v>1299</v>
       </c>
       <c r="J471" t="s">
@@ -29961,7 +29962,7 @@
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
+      <c r="A472" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B472" t="s">
@@ -29996,7 +29997,7 @@
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
+      <c r="A473" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J473" t="s">
@@ -30007,7 +30008,7 @@
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
+      <c r="A474" s="1" t="s">
         <v>563</v>
       </c>
       <c r="J474" t="s">
@@ -30018,7 +30019,7 @@
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
+      <c r="A475" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B475" t="s">
@@ -30050,7 +30051,7 @@
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+      <c r="A476" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B476" t="s">
@@ -30085,7 +30086,7 @@
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
+      <c r="A477" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B477" t="s">
@@ -30120,7 +30121,7 @@
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
+      <c r="A478" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B478" t="s">
@@ -30152,7 +30153,7 @@
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
+      <c r="A479" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B479" t="s">
@@ -30187,7 +30188,7 @@
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
+      <c r="A480" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B480" t="s">
@@ -30222,7 +30223,7 @@
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
+      <c r="A481" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J481" t="s">
@@ -30233,7 +30234,7 @@
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
+      <c r="A482" s="1" t="s">
         <v>578</v>
       </c>
       <c r="J482" t="s">
@@ -30244,7 +30245,7 @@
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+      <c r="A483" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B483" t="s">
@@ -30279,7 +30280,7 @@
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
+      <c r="A484" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B484" t="s">
@@ -30314,7 +30315,7 @@
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
+      <c r="A485" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B485" t="s">
@@ -30349,7 +30350,7 @@
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
+      <c r="A486" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J486" t="s">
@@ -30360,7 +30361,7 @@
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
+      <c r="A487" s="1" t="s">
         <v>1303</v>
       </c>
       <c r="J487" t="s">
@@ -30371,7 +30372,7 @@
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+      <c r="A488" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B488" t="s">
@@ -30403,7 +30404,7 @@
       </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
+      <c r="A489" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J489" t="s">
@@ -30414,7 +30415,7 @@
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
+      <c r="A490" s="1" t="s">
         <v>587</v>
       </c>
       <c r="J490" t="s">
@@ -30425,7 +30426,7 @@
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
+      <c r="A491" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B491" t="s">
@@ -30460,7 +30461,7 @@
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+      <c r="A492" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B492" t="s">
@@ -30495,7 +30496,7 @@
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+      <c r="A493" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J493" t="s">
@@ -30506,7 +30507,7 @@
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
+      <c r="A494" s="1" t="s">
         <v>1307</v>
       </c>
       <c r="J494" t="s">
@@ -30517,7 +30518,7 @@
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+      <c r="A495" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B495" t="s">
@@ -30552,7 +30553,7 @@
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
+      <c r="A496" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J496" t="s">
@@ -30563,7 +30564,7 @@
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
+      <c r="A497" s="1" t="s">
         <v>593</v>
       </c>
       <c r="J497" t="s">
@@ -30574,7 +30575,7 @@
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
+      <c r="A498" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B498" t="s">
@@ -30609,7 +30610,7 @@
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
+      <c r="A499" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B499" t="s">
@@ -30644,7 +30645,7 @@
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
+      <c r="A500" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B500" t="s">
@@ -30676,7 +30677,7 @@
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
+      <c r="A501" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B501" t="s">
@@ -30708,7 +30709,7 @@
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
+      <c r="A502" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B502" t="s">
@@ -30740,7 +30741,7 @@
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
+      <c r="A503" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B503" t="s">
@@ -30775,7 +30776,7 @@
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
+      <c r="A504" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J504" t="s">
@@ -30786,7 +30787,7 @@
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
+      <c r="A505" s="1" t="s">
         <v>1311</v>
       </c>
       <c r="J505" t="s">
@@ -30797,7 +30798,7 @@
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
+      <c r="A506" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B506" t="s">
@@ -30832,7 +30833,7 @@
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
+      <c r="A507" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J507" t="s">
@@ -30843,7 +30844,7 @@
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
+      <c r="A508" s="1" t="s">
         <v>608</v>
       </c>
       <c r="J508" t="s">
@@ -30854,7 +30855,7 @@
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
+      <c r="A509" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B509" t="s">
@@ -30889,7 +30890,7 @@
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
+      <c r="A510" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B510" t="s">
@@ -30921,7 +30922,7 @@
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
+      <c r="A511" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B511" t="s">
@@ -30956,7 +30957,7 @@
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
+      <c r="A512" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B512" t="s">
@@ -30988,7 +30989,7 @@
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
+      <c r="A513" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B513" t="s">
@@ -31023,7 +31024,7 @@
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
+      <c r="A514" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B514" t="s">
@@ -31058,7 +31059,7 @@
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
+      <c r="A515" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J515" t="s">
@@ -31069,7 +31070,7 @@
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
+      <c r="A516" s="1" t="s">
         <v>1315</v>
       </c>
       <c r="J516" t="s">
@@ -31080,7 +31081,7 @@
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
+      <c r="A517" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B517" t="s">
@@ -31115,7 +31116,7 @@
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
+      <c r="A518" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J518" t="s">
@@ -31126,7 +31127,7 @@
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
+      <c r="A519" s="1" t="s">
         <v>623</v>
       </c>
       <c r="J519" t="s">
@@ -31137,7 +31138,7 @@
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
+      <c r="A520" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B520" t="s">
@@ -31172,7 +31173,7 @@
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
+      <c r="A521" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B521" t="s">
@@ -31207,7 +31208,7 @@
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
+      <c r="A522" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B522" t="s">
@@ -31239,7 +31240,7 @@
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
+      <c r="A523" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B523" t="s">
@@ -31271,7 +31272,7 @@
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
+      <c r="A524" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J524" t="s">
@@ -31282,7 +31283,7 @@
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
+      <c r="A525" s="1" t="s">
         <v>1319</v>
       </c>
       <c r="J525" t="s">
@@ -31293,7 +31294,7 @@
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
+      <c r="A526" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B526" t="s">
@@ -31325,7 +31326,7 @@
       </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
+      <c r="A527" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J527" t="s">
@@ -31336,7 +31337,7 @@
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
+      <c r="A528" s="1" t="s">
         <v>1323</v>
       </c>
       <c r="J528" t="s">
@@ -31347,7 +31348,7 @@
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
+      <c r="A529" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B529" t="s">
@@ -31379,7 +31380,7 @@
       </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
+      <c r="A530" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J530" t="s">
@@ -31390,7 +31391,7 @@
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
+      <c r="A531" s="1" t="s">
         <v>634</v>
       </c>
       <c r="J531" t="s">
@@ -31401,7 +31402,7 @@
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
+      <c r="A532" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B532" t="s">
@@ -31433,7 +31434,7 @@
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
+      <c r="A533" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B533" t="s">
@@ -31465,7 +31466,7 @@
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
+      <c r="A534" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J534" t="s">
@@ -31476,7 +31477,7 @@
       </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
+      <c r="A535" s="1" t="s">
         <v>1328</v>
       </c>
       <c r="J535" t="s">
@@ -31487,7 +31488,7 @@
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
+      <c r="A536" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B536" t="s">
@@ -31519,7 +31520,7 @@
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
+      <c r="A537" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J537" t="s">
@@ -31530,7 +31531,7 @@
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
+      <c r="A538" s="1" t="s">
         <v>641</v>
       </c>
       <c r="J538" t="s">
@@ -31541,7 +31542,7 @@
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
+      <c r="A539" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B539" t="s">
@@ -31576,7 +31577,7 @@
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
+      <c r="A540" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B540" t="s">
@@ -31611,7 +31612,7 @@
       </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
+      <c r="A541" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B541" t="s">
@@ -31646,7 +31647,7 @@
       </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
+      <c r="A542" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B542" t="s">
@@ -31681,7 +31682,7 @@
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
+      <c r="A543" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B543" t="s">
@@ -31716,7 +31717,7 @@
       </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
+      <c r="A544" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B544" t="s">
@@ -31751,7 +31752,7 @@
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
+      <c r="A545" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J545" t="s">
@@ -31762,7 +31763,7 @@
       </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
+      <c r="A546" s="1" t="s">
         <v>657</v>
       </c>
       <c r="J546" t="s">
@@ -31773,7 +31774,7 @@
       </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
+      <c r="A547" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B547" t="s">
@@ -31805,7 +31806,7 @@
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
+      <c r="A548" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B548" t="s">
@@ -31840,7 +31841,7 @@
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
+      <c r="A549" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B549" t="s">
@@ -31872,7 +31873,7 @@
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
+      <c r="A550" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B550" t="s">
@@ -31907,7 +31908,7 @@
       </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
+      <c r="A551" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J551" t="s">
@@ -31918,7 +31919,7 @@
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
+      <c r="A552" s="1" t="s">
         <v>669</v>
       </c>
       <c r="J552" t="s">
@@ -31929,7 +31930,7 @@
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
+      <c r="A553" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B553" t="s">
@@ -31961,7 +31962,7 @@
       </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
+      <c r="A554" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B554" t="s">
@@ -31993,7 +31994,7 @@
       </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
+      <c r="A555" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B555" t="s">
@@ -32028,7 +32029,7 @@
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
+      <c r="A556" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B556" t="s">
@@ -32063,7 +32064,7 @@
       </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
+      <c r="A557" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B557" t="s">
@@ -32095,7 +32096,7 @@
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
+      <c r="A558" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B558" t="s">
@@ -32127,7 +32128,7 @@
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
+      <c r="A559" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B559" t="s">
@@ -32162,7 +32163,7 @@
       </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
+      <c r="A560" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J560" t="s">
@@ -32173,7 +32174,7 @@
       </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
+      <c r="A561" s="1" t="s">
         <v>1333</v>
       </c>
       <c r="J561" t="s">
@@ -32184,7 +32185,7 @@
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
+      <c r="A562" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B562" t="s">
@@ -32219,7 +32220,7 @@
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
+      <c r="A563" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J563" t="s">
@@ -32230,7 +32231,7 @@
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
+      <c r="A564" s="1" t="s">
         <v>1338</v>
       </c>
       <c r="J564" t="s">
@@ -32241,7 +32242,7 @@
       </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
+      <c r="A565" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B565" t="s">
@@ -32273,7 +32274,7 @@
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
+      <c r="A566" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J566" t="s">
@@ -32284,7 +32285,7 @@
       </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
+      <c r="A567" s="1" t="s">
         <v>1343</v>
       </c>
       <c r="J567" t="s">
@@ -32295,7 +32296,7 @@
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
+      <c r="A568" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B568" t="s">
@@ -32327,7 +32328,7 @@
       </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
+      <c r="A569" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J569" t="s">
@@ -32338,7 +32339,7 @@
       </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
+      <c r="A570" s="1" t="s">
         <v>1348</v>
       </c>
       <c r="J570" t="s">
@@ -32349,7 +32350,7 @@
       </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
+      <c r="A571" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B571" t="s">
@@ -32381,7 +32382,7 @@
       </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
+      <c r="A572" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J572" t="s">
@@ -32392,7 +32393,7 @@
       </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
+      <c r="A573" s="1" t="s">
         <v>1353</v>
       </c>
       <c r="J573" t="s">
@@ -32403,7 +32404,7 @@
       </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
+      <c r="A574" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B574" t="s">
@@ -32435,7 +32436,7 @@
       </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
+      <c r="A575" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J575" t="s">
@@ -32446,7 +32447,7 @@
       </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
+      <c r="A576" s="1" t="s">
         <v>1358</v>
       </c>
       <c r="J576" t="s">
@@ -32457,7 +32458,7 @@
       </c>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
+      <c r="A577" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B577" t="s">
@@ -32489,7 +32490,7 @@
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
+      <c r="A578" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J578" t="s">
@@ -32500,7 +32501,7 @@
       </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
+      <c r="A579" s="1" t="s">
         <v>685</v>
       </c>
       <c r="J579" t="s">
@@ -32511,7 +32512,7 @@
       </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
+      <c r="A580" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B580" t="s">
@@ -32543,7 +32544,7 @@
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
+      <c r="A581" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B581" t="s">
@@ -32575,7 +32576,7 @@
       </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
+      <c r="A582" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J582" t="s">
@@ -32586,7 +32587,7 @@
       </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
+      <c r="A583" s="1" t="s">
         <v>1363</v>
       </c>
       <c r="J583" t="s">
@@ -32597,7 +32598,7 @@
       </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
+      <c r="A584" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B584" t="s">
@@ -32632,7 +32633,7 @@
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
+      <c r="A585" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J585" t="s">
@@ -32643,7 +32644,7 @@
       </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
+      <c r="A586" s="1" t="s">
         <v>693</v>
       </c>
       <c r="J586" t="s">
@@ -32654,7 +32655,7 @@
       </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
+      <c r="A587" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B587" t="s">
@@ -32686,7 +32687,7 @@
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
+      <c r="A588" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B588" t="s">
@@ -32721,7 +32722,7 @@
       </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
+      <c r="A589" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B589" t="s">
@@ -32753,7 +32754,7 @@
       </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
+      <c r="A590" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B590" t="s">
@@ -32785,7 +32786,7 @@
       </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
+      <c r="A591" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B591" t="s">
@@ -32820,7 +32821,7 @@
       </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
+      <c r="A592" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B592" t="s">
@@ -32855,7 +32856,7 @@
       </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
+      <c r="A593" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J593" t="s">
@@ -32866,7 +32867,7 @@
       </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
+      <c r="A594" s="1" t="s">
         <v>1367</v>
       </c>
       <c r="J594" t="s">
@@ -32877,7 +32878,7 @@
       </c>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
+      <c r="A595" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B595" t="s">
@@ -32912,7 +32913,7 @@
       </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
+      <c r="A596" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J596" t="s">
@@ -32923,7 +32924,7 @@
       </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
+      <c r="A597" s="1" t="s">
         <v>1372</v>
       </c>
       <c r="J597" t="s">
@@ -32934,7 +32935,7 @@
       </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
+      <c r="A598" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B598" t="s">
@@ -32969,7 +32970,7 @@
       </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
+      <c r="A599" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J599" t="s">
@@ -32980,7 +32981,7 @@
       </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
+      <c r="A600" s="1" t="s">
         <v>708</v>
       </c>
       <c r="J600" t="s">
@@ -32991,7 +32992,7 @@
       </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
+      <c r="A601" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B601" t="s">
@@ -33026,7 +33027,7 @@
       </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
+      <c r="A602" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B602" t="s">
@@ -33061,7 +33062,7 @@
       </c>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
+      <c r="A603" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B603" t="s">
@@ -33096,7 +33097,7 @@
       </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
+      <c r="A604" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B604" t="s">
@@ -33128,7 +33129,7 @@
       </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
+      <c r="A605" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B605" t="s">
@@ -33160,7 +33161,7 @@
       </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
+      <c r="A606" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B606" t="s">
@@ -33192,7 +33193,7 @@
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A607" t="s">
+      <c r="A607" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J607" t="s">
@@ -33203,7 +33204,7 @@
       </c>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
+      <c r="A608" s="1" t="s">
         <v>1376</v>
       </c>
       <c r="J608" t="s">
@@ -33214,7 +33215,7 @@
       </c>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
+      <c r="A609" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B609" t="s">
@@ -33246,7 +33247,7 @@
       </c>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
+      <c r="A610" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J610" t="s">
@@ -33257,7 +33258,7 @@
       </c>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
+      <c r="A611" s="1" t="s">
         <v>723</v>
       </c>
       <c r="J611" t="s">
@@ -33268,7 +33269,7 @@
       </c>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
+      <c r="A612" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B612" t="s">
@@ -33303,7 +33304,7 @@
       </c>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
+      <c r="A613" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B613" t="s">
@@ -33338,7 +33339,7 @@
       </c>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
+      <c r="A614" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B614" t="s">
@@ -33373,7 +33374,7 @@
       </c>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
+      <c r="A615" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J615" t="s">
@@ -33384,7 +33385,7 @@
       </c>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
+      <c r="A616" s="1" t="s">
         <v>1381</v>
       </c>
       <c r="J616" t="s">
@@ -33395,7 +33396,7 @@
       </c>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
+      <c r="A617" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B617" t="s">
@@ -33427,7 +33428,7 @@
       </c>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
+      <c r="A618" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J618" t="s">
@@ -33438,7 +33439,7 @@
       </c>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
+      <c r="A619" s="1" t="s">
         <v>1385</v>
       </c>
       <c r="J619" t="s">
@@ -33449,7 +33450,7 @@
       </c>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
+      <c r="A620" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B620" t="s">
@@ -33484,7 +33485,7 @@
       </c>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
+      <c r="A621" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J621" t="s">
@@ -33495,7 +33496,7 @@
       </c>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
+      <c r="A622" s="1" t="s">
         <v>732</v>
       </c>
       <c r="J622" t="s">
@@ -33506,7 +33507,7 @@
       </c>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
+      <c r="A623" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B623" t="s">
@@ -33538,7 +33539,7 @@
       </c>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
+      <c r="A624" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B624" t="s">
@@ -33570,7 +33571,7 @@
       </c>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
+      <c r="A625" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B625" t="s">
@@ -33602,7 +33603,7 @@
       </c>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
+      <c r="A626" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J626" t="s">
@@ -33613,7 +33614,7 @@
       </c>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
+      <c r="A627" s="1" t="s">
         <v>1389</v>
       </c>
       <c r="J627" t="s">
@@ -33624,7 +33625,7 @@
       </c>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
+      <c r="A628" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B628" t="s">
@@ -33656,7 +33657,7 @@
       </c>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
+      <c r="A629" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J629" t="s">
@@ -33667,7 +33668,7 @@
       </c>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
+      <c r="A630" s="1" t="s">
         <v>1394</v>
       </c>
       <c r="J630" t="s">
@@ -33678,7 +33679,7 @@
       </c>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
+      <c r="A631" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B631" t="s">
@@ -33713,7 +33714,7 @@
       </c>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
+      <c r="A632" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J632" t="s">
@@ -33724,7 +33725,7 @@
       </c>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
+      <c r="A633" s="1" t="s">
         <v>741</v>
       </c>
       <c r="J633" t="s">
@@ -33735,7 +33736,7 @@
       </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
+      <c r="A634" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B634" t="s">
@@ -33767,7 +33768,7 @@
       </c>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
+      <c r="A635" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B635" t="s">
@@ -33802,7 +33803,7 @@
       </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
+      <c r="A636" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B636" t="s">
@@ -33834,7 +33835,7 @@
       </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
+      <c r="A637" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B637" t="s">
@@ -33866,7 +33867,7 @@
       </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" t="s">
+      <c r="A638" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B638" t="s">
@@ -33901,7 +33902,7 @@
       </c>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A639" t="s">
+      <c r="A639" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J639" t="s">
@@ -33912,7 +33913,7 @@
       </c>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" t="s">
+      <c r="A640" s="1" t="s">
         <v>1398</v>
       </c>
       <c r="J640" t="s">
@@ -33923,7 +33924,7 @@
       </c>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A641" t="s">
+      <c r="A641" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B641" t="s">
@@ -33955,7 +33956,7 @@
       </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
+      <c r="A642" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J642" t="s">
@@ -33966,7 +33967,7 @@
       </c>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
+      <c r="A643" s="1" t="s">
         <v>1403</v>
       </c>
       <c r="J643" t="s">
@@ -33977,7 +33978,7 @@
       </c>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
+      <c r="A644" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B644" t="s">
@@ -34012,7 +34013,7 @@
       </c>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A645" t="s">
+      <c r="A645" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J645" t="s">
@@ -34023,7 +34024,7 @@
       </c>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
+      <c r="A646" s="1" t="s">
         <v>1408</v>
       </c>
       <c r="J646" t="s">
@@ -34034,7 +34035,7 @@
       </c>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A647" t="s">
+      <c r="A647" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B647" t="s">
@@ -34069,7 +34070,7 @@
       </c>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A648" t="s">
+      <c r="A648" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J648" t="s">
@@ -34080,7 +34081,7 @@
       </c>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A649" t="s">
+      <c r="A649" s="1" t="s">
         <v>754</v>
       </c>
       <c r="J649" t="s">
@@ -34091,7 +34092,7 @@
       </c>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A650" t="s">
+      <c r="A650" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B650" t="s">
@@ -34123,7 +34124,7 @@
       </c>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
+      <c r="A651" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B651" t="s">
@@ -34158,7 +34159,7 @@
       </c>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
+      <c r="A652" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J652" t="s">
@@ -34169,7 +34170,7 @@
       </c>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A653" t="s">
+      <c r="A653" s="1" t="s">
         <v>761</v>
       </c>
       <c r="J653" t="s">
@@ -34180,7 +34181,7 @@
       </c>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A654" t="s">
+      <c r="A654" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B654" t="s">
@@ -34215,7 +34216,7 @@
       </c>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A655" t="s">
+      <c r="A655" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B655" t="s">
@@ -34250,7 +34251,7 @@
       </c>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
+      <c r="A656" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J656" t="s">
@@ -34261,7 +34262,7 @@
       </c>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A657" t="s">
+      <c r="A657" s="1" t="s">
         <v>1412</v>
       </c>
       <c r="J657" t="s">
@@ -34272,7 +34273,7 @@
       </c>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
+      <c r="A658" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B658" t="s">
@@ -34304,7 +34305,7 @@
       </c>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A659" t="s">
+      <c r="A659" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J659" t="s">
@@ -34315,7 +34316,7 @@
       </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A660" t="s">
+      <c r="A660" s="1" t="s">
         <v>1417</v>
       </c>
       <c r="J660" t="s">
@@ -34326,7 +34327,7 @@
       </c>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A661" t="s">
+      <c r="A661" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B661" t="s">
@@ -34361,7 +34362,7 @@
       </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A662" t="s">
+      <c r="A662" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J662" t="s">
@@ -34372,7 +34373,7 @@
       </c>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" t="s">
+      <c r="A663" s="1" t="s">
         <v>770</v>
       </c>
       <c r="J663" t="s">
@@ -34383,7 +34384,7 @@
       </c>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664" t="s">
+      <c r="A664" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B664" t="s">
@@ -34415,7 +34416,7 @@
       </c>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A665" t="s">
+      <c r="A665" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B665" t="s">
@@ -34450,7 +34451,7 @@
       </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A666" t="s">
+      <c r="A666" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B666" t="s">
@@ -34485,7 +34486,7 @@
       </c>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A667" t="s">
+      <c r="A667" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B667" t="s">
@@ -34517,7 +34518,7 @@
       </c>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A668" t="s">
+      <c r="A668" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B668" t="s">
@@ -34549,7 +34550,7 @@
       </c>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A669" t="s">
+      <c r="A669" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J669" t="s">
@@ -34560,7 +34561,7 @@
       </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A670" t="s">
+      <c r="A670" s="1" t="s">
         <v>1421</v>
       </c>
       <c r="J670" t="s">
@@ -34571,7 +34572,7 @@
       </c>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A671" t="s">
+      <c r="A671" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B671" t="s">
@@ -34606,7 +34607,7 @@
       </c>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A672" t="s">
+      <c r="A672" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J672" t="s">
@@ -34617,7 +34618,7 @@
       </c>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A673" t="s">
+      <c r="A673" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="J673" t="s">
@@ -34628,7 +34629,7 @@
       </c>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A674" t="s">
+      <c r="A674" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B674" t="s">
@@ -34660,7 +34661,7 @@
       </c>
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A675" t="s">
+      <c r="A675" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J675" t="s">
@@ -34671,7 +34672,7 @@
       </c>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A676" t="s">
+      <c r="A676" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="J676" t="s">
@@ -34682,7 +34683,7 @@
       </c>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A677" t="s">
+      <c r="A677" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B677" t="s">
@@ -34717,7 +34718,7 @@
       </c>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A678" t="s">
+      <c r="A678" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J678" t="s">
@@ -34728,7 +34729,7 @@
       </c>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A679" t="s">
+      <c r="A679" s="1" t="s">
         <v>783</v>
       </c>
       <c r="J679" t="s">
@@ -34739,7 +34740,7 @@
       </c>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A680" t="s">
+      <c r="A680" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B680" t="s">
@@ -34774,7 +34775,7 @@
       </c>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A681" t="s">
+      <c r="A681" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B681" t="s">
@@ -34809,7 +34810,7 @@
       </c>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
+      <c r="A682" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B682" t="s">
@@ -34844,7 +34845,7 @@
       </c>
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A683" t="s">
+      <c r="A683" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B683" t="s">
@@ -34879,7 +34880,7 @@
       </c>
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A684" t="s">
+      <c r="A684" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J684" t="s">
@@ -34890,7 +34891,7 @@
       </c>
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A685" t="s">
+      <c r="A685" s="1" t="s">
         <v>1437</v>
       </c>
       <c r="J685" t="s">
@@ -34901,7 +34902,7 @@
       </c>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A686" t="s">
+      <c r="A686" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B686" t="s">
@@ -34936,7 +34937,7 @@
       </c>
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A687" t="s">
+      <c r="A687" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J687" t="s">
@@ -34947,7 +34948,7 @@
       </c>
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A688" t="s">
+      <c r="A688" s="1" t="s">
         <v>795</v>
       </c>
       <c r="J688" t="s">
@@ -34958,7 +34959,7 @@
       </c>
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A689" t="s">
+      <c r="A689" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B689" t="s">
@@ -34990,7 +34991,7 @@
       </c>
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A690" t="s">
+      <c r="A690" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B690" t="s">
@@ -35022,7 +35023,7 @@
       </c>
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A691" t="s">
+      <c r="A691" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B691" t="s">
@@ -35054,7 +35055,7 @@
       </c>
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A692" t="s">
+      <c r="A692" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B692" t="s">
@@ -35086,7 +35087,7 @@
       </c>
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A693" t="s">
+      <c r="A693" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J693" t="s">
@@ -35097,7 +35098,7 @@
       </c>
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A694" t="s">
+      <c r="A694" s="1" t="s">
         <v>805</v>
       </c>
       <c r="J694" t="s">
@@ -35108,7 +35109,7 @@
       </c>
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A695" t="s">
+      <c r="A695" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B695" t="s">
@@ -35143,7 +35144,7 @@
       </c>
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A696" t="s">
+      <c r="A696" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B696" t="s">
@@ -35175,7 +35176,7 @@
       </c>
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A697" t="s">
+      <c r="A697" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B697" t="s">
@@ -35210,7 +35211,7 @@
       </c>
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A698" t="s">
+      <c r="A698" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J698" t="s">
@@ -35221,7 +35222,7 @@
       </c>
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A699" t="s">
+      <c r="A699" s="1" t="s">
         <v>1442</v>
       </c>
       <c r="J699" t="s">
@@ -35232,7 +35233,7 @@
       </c>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A700" t="s">
+      <c r="A700" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B700" t="s">
@@ -35264,7 +35265,7 @@
       </c>
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A701" t="s">
+      <c r="A701" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J701" t="s">
@@ -35275,7 +35276,7 @@
       </c>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A702" t="s">
+      <c r="A702" s="1" t="s">
         <v>1447</v>
       </c>
       <c r="J702" t="s">
@@ -35286,7 +35287,7 @@
       </c>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A703" t="s">
+      <c r="A703" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B703" t="s">
@@ -35318,7 +35319,7 @@
       </c>
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A704" t="s">
+      <c r="A704" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J704" t="s">
@@ -35329,7 +35330,7 @@
       </c>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A705" t="s">
+      <c r="A705" s="1" t="s">
         <v>1452</v>
       </c>
       <c r="J705" t="s">
@@ -35340,7 +35341,7 @@
       </c>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A706" t="s">
+      <c r="A706" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B706" t="s">
@@ -35375,7 +35376,7 @@
       </c>
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A707" t="s">
+      <c r="A707" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J707" t="s">
@@ -35386,7 +35387,7 @@
       </c>
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
+      <c r="A708" s="1" t="s">
         <v>1456</v>
       </c>
       <c r="J708" t="s">
@@ -35397,7 +35398,7 @@
       </c>
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A709" t="s">
+      <c r="A709" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B709" t="s">
@@ -35429,7 +35430,7 @@
       </c>
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A710" t="s">
+      <c r="A710" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J710" t="s">
@@ -35440,7 +35441,7 @@
       </c>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A711" t="s">
+      <c r="A711" s="1" t="s">
         <v>1460</v>
       </c>
       <c r="J711" t="s">
@@ -35451,7 +35452,7 @@
       </c>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A712" t="s">
+      <c r="A712" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B712" t="s">
@@ -35486,7 +35487,7 @@
       </c>
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A713" t="s">
+      <c r="A713" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J713" t="s">
@@ -35497,7 +35498,7 @@
       </c>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A714" t="s">
+      <c r="A714" s="1" t="s">
         <v>1465</v>
       </c>
       <c r="J714" t="s">
@@ -35508,7 +35509,7 @@
       </c>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A715" t="s">
+      <c r="A715" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B715" t="s">
@@ -35540,7 +35541,7 @@
       </c>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A716" t="s">
+      <c r="A716" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J716" t="s">
@@ -35551,7 +35552,7 @@
       </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A717" t="s">
+      <c r="A717" s="1" t="s">
         <v>814</v>
       </c>
       <c r="J717" t="s">
@@ -35562,7 +35563,7 @@
       </c>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A718" t="s">
+      <c r="A718" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B718" t="s">
@@ -35597,7 +35598,7 @@
       </c>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A719" t="s">
+      <c r="A719" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B719" t="s">
@@ -35632,7 +35633,7 @@
       </c>
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A720" t="s">
+      <c r="A720" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B720" t="s">
@@ -35664,7 +35665,7 @@
       </c>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A721" t="s">
+      <c r="A721" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J721" t="s">
@@ -35675,7 +35676,7 @@
       </c>
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
+      <c r="A722" s="1" t="s">
         <v>1469</v>
       </c>
       <c r="J722" t="s">
@@ -35686,7 +35687,7 @@
       </c>
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A723" t="s">
+      <c r="A723" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B723" t="s">
@@ -35718,7 +35719,7 @@
       </c>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A724" t="s">
+      <c r="A724" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J724" t="s">
@@ -35729,7 +35730,7 @@
       </c>
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A725" t="s">
+      <c r="A725" s="1" t="s">
         <v>1473</v>
       </c>
       <c r="J725" t="s">
@@ -35740,7 +35741,7 @@
       </c>
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A726" t="s">
+      <c r="A726" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B726" t="s">
@@ -35772,7 +35773,7 @@
       </c>
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A727" t="s">
+      <c r="A727" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J727" t="s">
@@ -35783,7 +35784,7 @@
       </c>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A728" t="s">
+      <c r="A728" s="1" t="s">
         <v>823</v>
       </c>
       <c r="J728" t="s">
@@ -35794,7 +35795,7 @@
       </c>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A729" t="s">
+      <c r="A729" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B729" t="s">
@@ -35826,7 +35827,7 @@
       </c>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A730" t="s">
+      <c r="A730" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B730" t="s">
@@ -35858,7 +35859,7 @@
       </c>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A731" t="s">
+      <c r="A731" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B731" t="s">
@@ -35890,7 +35891,7 @@
       </c>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A732" t="s">
+      <c r="A732" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B732" t="s">
@@ -35922,7 +35923,7 @@
       </c>
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A733" t="s">
+      <c r="A733" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J733" t="s">
@@ -35933,7 +35934,7 @@
       </c>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A734" t="s">
+      <c r="A734" s="1" t="s">
         <v>1478</v>
       </c>
       <c r="J734" t="s">
@@ -35944,7 +35945,7 @@
       </c>
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A735" t="s">
+      <c r="A735" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B735" t="s">
@@ -35979,7 +35980,7 @@
       </c>
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A736" t="s">
+      <c r="A736" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J736" t="s">
@@ -35990,7 +35991,7 @@
       </c>
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A737" t="s">
+      <c r="A737" s="1" t="s">
         <v>835</v>
       </c>
       <c r="J737" t="s">
@@ -36001,7 +36002,7 @@
       </c>
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A738" t="s">
+      <c r="A738" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B738" t="s">
@@ -36033,7 +36034,7 @@
       </c>
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A739" t="s">
+      <c r="A739" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B739" t="s">
@@ -36068,7 +36069,7 @@
       </c>
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A740" t="s">
+      <c r="A740" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B740" t="s">
@@ -36100,7 +36101,7 @@
       </c>
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A741" t="s">
+      <c r="A741" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B741" t="s">
@@ -36132,7 +36133,7 @@
       </c>
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A742" t="s">
+      <c r="A742" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J742" t="s">
@@ -36143,7 +36144,7 @@
       </c>
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A743" t="s">
+      <c r="A743" s="1" t="s">
         <v>1482</v>
       </c>
       <c r="J743" t="s">
@@ -36154,7 +36155,7 @@
       </c>
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A744" t="s">
+      <c r="A744" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B744" t="s">
@@ -36186,7 +36187,7 @@
       </c>
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A745" t="s">
+      <c r="A745" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J745" t="s">
@@ -36197,7 +36198,7 @@
       </c>
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A746" t="s">
+      <c r="A746" s="1" t="s">
         <v>846</v>
       </c>
       <c r="J746" t="s">
@@ -36208,7 +36209,7 @@
       </c>
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A747" t="s">
+      <c r="A747" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B747" t="s">
@@ -36240,7 +36241,7 @@
       </c>
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A748" t="s">
+      <c r="A748" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B748" t="s">
@@ -36275,7 +36276,7 @@
       </c>
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A749" t="s">
+      <c r="A749" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J749" t="s">
@@ -36286,7 +36287,7 @@
       </c>
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A750" t="s">
+      <c r="A750" s="1" t="s">
         <v>853</v>
       </c>
       <c r="J750" t="s">
@@ -36297,7 +36298,7 @@
       </c>
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A751" t="s">
+      <c r="A751" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B751" t="s">
@@ -36329,7 +36330,7 @@
       </c>
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A752" t="s">
+      <c r="A752" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B752" t="s">
@@ -36364,7 +36365,7 @@
       </c>
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A753" t="s">
+      <c r="A753" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B753" t="s">
@@ -36399,7 +36400,7 @@
       </c>
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A754" t="s">
+      <c r="A754" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B754" t="s">
@@ -36431,7 +36432,7 @@
       </c>
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A755" t="s">
+      <c r="A755" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J755" t="s">
@@ -36442,7 +36443,7 @@
       </c>
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A756" t="s">
+      <c r="A756" s="1" t="s">
         <v>1487</v>
       </c>
       <c r="J756" t="s">
@@ -36453,7 +36454,7 @@
       </c>
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A757" t="s">
+      <c r="A757" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B757" t="s">
@@ -36488,7 +36489,7 @@
       </c>
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A758" t="s">
+      <c r="A758" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J758" t="s">
@@ -36499,7 +36500,7 @@
       </c>
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A759" t="s">
+      <c r="A759" s="1" t="s">
         <v>864</v>
       </c>
       <c r="J759" t="s">
@@ -36510,7 +36511,7 @@
       </c>
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A760" t="s">
+      <c r="A760" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B760" t="s">
@@ -36545,7 +36546,7 @@
       </c>
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A761" t="s">
+      <c r="A761" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B761" t="s">
@@ -36580,7 +36581,7 @@
       </c>
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A762" t="s">
+      <c r="A762" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B762" t="s">
@@ -36615,7 +36616,7 @@
       </c>
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A763" t="s">
+      <c r="A763" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B763" t="s">
@@ -36647,7 +36648,7 @@
       </c>
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A764" t="s">
+      <c r="A764" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B764" t="s">
@@ -36679,7 +36680,7 @@
       </c>
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A765" t="s">
+      <c r="A765" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J765" t="s">
@@ -36690,7 +36691,7 @@
       </c>
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A766" t="s">
+      <c r="A766" s="1" t="s">
         <v>1491</v>
       </c>
       <c r="J766" t="s">
@@ -36701,7 +36702,7 @@
       </c>
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A767" t="s">
+      <c r="A767" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B767" t="s">
@@ -36736,7 +36737,7 @@
       </c>
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A768" t="s">
+      <c r="A768" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J768" t="s">
@@ -36747,7 +36748,7 @@
       </c>
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A769" t="s">
+      <c r="A769" s="1" t="s">
         <v>877</v>
       </c>
       <c r="J769" t="s">
@@ -36758,7 +36759,7 @@
       </c>
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
+      <c r="A770" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B770" t="s">
@@ -36793,7 +36794,7 @@
       </c>
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A771" t="s">
+      <c r="A771" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B771" t="s">
@@ -36828,7 +36829,7 @@
       </c>
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A772" t="s">
+      <c r="A772" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B772" t="s">
@@ -36860,7 +36861,7 @@
       </c>
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A773" t="s">
+      <c r="A773" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B773" t="s">
@@ -36892,7 +36893,7 @@
       </c>
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A774" t="s">
+      <c r="A774" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J774" t="s">
@@ -36903,7 +36904,7 @@
       </c>
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A775" t="s">
+      <c r="A775" s="1" t="s">
         <v>888</v>
       </c>
       <c r="J775" t="s">
@@ -36914,7 +36915,7 @@
       </c>
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A776" t="s">
+      <c r="A776" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B776" t="s">
@@ -36946,7 +36947,7 @@
       </c>
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A777" t="s">
+      <c r="A777" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B777" t="s">
@@ -36981,7 +36982,7 @@
       </c>
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A778" t="s">
+      <c r="A778" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B778" t="s">
@@ -37013,7 +37014,7 @@
       </c>
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A779" t="s">
+      <c r="A779" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J779" t="s">
@@ -37024,7 +37025,7 @@
       </c>
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A780" t="s">
+      <c r="A780" s="1" t="s">
         <v>1495</v>
       </c>
       <c r="J780" t="s">
@@ -37035,7 +37036,7 @@
       </c>
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A781" t="s">
+      <c r="A781" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B781" t="s">
@@ -37070,7 +37071,7 @@
       </c>
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A782" t="s">
+      <c r="A782" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J782" t="s">
@@ -37081,7 +37082,7 @@
       </c>
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A783" t="s">
+      <c r="A783" s="1" t="s">
         <v>897</v>
       </c>
       <c r="J783" t="s">
@@ -37092,7 +37093,7 @@
       </c>
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A784" t="s">
+      <c r="A784" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B784" t="s">
@@ -37127,7 +37128,7 @@
       </c>
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A785" t="s">
+      <c r="A785" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B785" t="s">
@@ -37159,7 +37160,7 @@
       </c>
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A786" t="s">
+      <c r="A786" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B786" t="s">
@@ -37194,7 +37195,7 @@
       </c>
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A787" t="s">
+      <c r="A787" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B787" t="s">
@@ -37226,7 +37227,7 @@
       </c>
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A788" t="s">
+      <c r="A788" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B788" t="s">
@@ -37258,7 +37259,7 @@
       </c>
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A789" t="s">
+      <c r="A789" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J789" t="s">
@@ -37269,7 +37270,7 @@
       </c>
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A790" t="s">
+      <c r="A790" s="1" t="s">
         <v>1499</v>
       </c>
       <c r="J790" t="s">
@@ -37280,7 +37281,7 @@
       </c>
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A791" t="s">
+      <c r="A791" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B791" t="s">
@@ -37312,7 +37313,7 @@
       </c>
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A792" t="s">
+      <c r="A792" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J792" t="s">
@@ -37323,7 +37324,7 @@
       </c>
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A793" t="s">
+      <c r="A793" s="1" t="s">
         <v>1504</v>
       </c>
       <c r="J793" t="s">
@@ -37334,7 +37335,7 @@
       </c>
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A794" t="s">
+      <c r="A794" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B794" t="s">
@@ -37369,7 +37370,7 @@
       </c>
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A795" t="s">
+      <c r="A795" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J795" t="s">
@@ -37380,7 +37381,7 @@
       </c>
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A796" t="s">
+      <c r="A796" s="1" t="s">
         <v>910</v>
       </c>
       <c r="J796" t="s">
@@ -37391,7 +37392,7 @@
       </c>
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A797" t="s">
+      <c r="A797" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B797" t="s">
@@ -37426,7 +37427,7 @@
       </c>
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A798" t="s">
+      <c r="A798" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B798" t="s">
@@ -37458,7 +37459,7 @@
       </c>
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A799" t="s">
+      <c r="A799" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B799" t="s">
@@ -37493,7 +37494,7 @@
       </c>
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A800" t="s">
+      <c r="A800" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B800" t="s">
@@ -37525,7 +37526,7 @@
       </c>
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A801" t="s">
+      <c r="A801" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B801" t="s">
@@ -37557,7 +37558,7 @@
       </c>
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A802" t="s">
+      <c r="A802" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B802" t="s">
@@ -37592,7 +37593,7 @@
       </c>
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A803" t="s">
+      <c r="A803" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J803" t="s">
@@ -37603,7 +37604,7 @@
       </c>
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A804" t="s">
+      <c r="A804" s="1" t="s">
         <v>1508</v>
       </c>
       <c r="J804" t="s">
@@ -37614,7 +37615,7 @@
       </c>
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A805" t="s">
+      <c r="A805" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B805" t="s">
@@ -37649,7 +37650,7 @@
       </c>
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A806" t="s">
+      <c r="A806" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J806" t="s">
@@ -37660,7 +37661,7 @@
       </c>
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A807" t="s">
+      <c r="A807" s="1" t="s">
         <v>925</v>
       </c>
       <c r="J807" t="s">
@@ -37671,7 +37672,7 @@
       </c>
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A808" t="s">
+      <c r="A808" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B808" t="s">
@@ -37703,7 +37704,7 @@
       </c>
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A809" t="s">
+      <c r="A809" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B809" t="s">
@@ -37738,7 +37739,7 @@
       </c>
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A810" t="s">
+      <c r="A810" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B810" t="s">
@@ -37773,7 +37774,7 @@
       </c>
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A811" t="s">
+      <c r="A811" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B811" t="s">
@@ -37805,7 +37806,7 @@
       </c>
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A812" t="s">
+      <c r="A812" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J812" t="s">
@@ -37816,7 +37817,7 @@
       </c>
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A813" t="s">
+      <c r="A813" s="1" t="s">
         <v>1512</v>
       </c>
       <c r="J813" t="s">
@@ -37827,7 +37828,7 @@
       </c>
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A814" t="s">
+      <c r="A814" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B814" t="s">
@@ -37862,7 +37863,7 @@
       </c>
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A815" t="s">
+      <c r="A815" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J815" t="s">
@@ -37873,7 +37874,7 @@
       </c>
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A816" t="s">
+      <c r="A816" s="1" t="s">
         <v>936</v>
       </c>
       <c r="J816" t="s">
@@ -37884,7 +37885,7 @@
       </c>
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A817" t="s">
+      <c r="A817" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B817" t="s">
@@ -37916,7 +37917,7 @@
       </c>
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A818" t="s">
+      <c r="A818" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B818" t="s">
@@ -37951,7 +37952,7 @@
       </c>
     </row>
     <row r="819" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A819" t="s">
+      <c r="A819" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B819" t="s">
@@ -37986,7 +37987,7 @@
       </c>
     </row>
     <row r="820" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A820" t="s">
+      <c r="A820" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B820" t="s">
@@ -38018,7 +38019,7 @@
       </c>
     </row>
     <row r="821" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A821" t="s">
+      <c r="A821" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B821" t="s">
@@ -38050,7 +38051,7 @@
       </c>
     </row>
     <row r="822" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A822" t="s">
+      <c r="A822" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J822" t="s">
@@ -38061,7 +38062,7 @@
       </c>
     </row>
     <row r="823" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A823" t="s">
+      <c r="A823" s="1" t="s">
         <v>1516</v>
       </c>
       <c r="J823" t="s">
@@ -38072,7 +38073,7 @@
       </c>
     </row>
     <row r="824" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A824" t="s">
+      <c r="A824" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B824" t="s">
@@ -38104,7 +38105,7 @@
       </c>
     </row>
     <row r="825" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A825" t="s">
+      <c r="A825" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J825" t="s">
@@ -38115,7 +38116,7 @@
       </c>
     </row>
     <row r="826" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A826" t="s">
+      <c r="A826" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="J826" t="s">
@@ -38126,7 +38127,7 @@
       </c>
     </row>
     <row r="827" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A827" t="s">
+      <c r="A827" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B827" t="s">
@@ -38158,7 +38159,7 @@
       </c>
     </row>
     <row r="828" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A828" t="s">
+      <c r="A828" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J828" t="s">
@@ -38169,7 +38170,7 @@
       </c>
     </row>
     <row r="829" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A829" t="s">
+      <c r="A829" s="1" t="s">
         <v>1526</v>
       </c>
       <c r="J829" t="s">
@@ -38180,7 +38181,7 @@
       </c>
     </row>
     <row r="830" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A830" t="s">
+      <c r="A830" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B830" t="s">
@@ -38215,7 +38216,7 @@
       </c>
     </row>
     <row r="831" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A831" t="s">
+      <c r="A831" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J831" t="s">
@@ -38226,7 +38227,7 @@
       </c>
     </row>
     <row r="832" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A832" t="s">
+      <c r="A832" s="1" t="s">
         <v>949</v>
       </c>
       <c r="J832" t="s">
@@ -38237,7 +38238,7 @@
       </c>
     </row>
     <row r="833" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A833" t="s">
+      <c r="A833" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B833" t="s">
@@ -38272,7 +38273,7 @@
       </c>
     </row>
     <row r="834" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A834" t="s">
+      <c r="A834" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B834" t="s">
@@ -38307,7 +38308,7 @@
       </c>
     </row>
     <row r="835" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A835" t="s">
+      <c r="A835" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J835" t="s">
@@ -38318,7 +38319,7 @@
       </c>
     </row>
     <row r="836" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A836" t="s">
+      <c r="A836" s="1" t="s">
         <v>1531</v>
       </c>
       <c r="J836" t="s">
@@ -38329,7 +38330,7 @@
       </c>
     </row>
     <row r="837" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A837" t="s">
+      <c r="A837" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B837" t="s">
@@ -38361,7 +38362,7 @@
       </c>
     </row>
     <row r="838" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A838" t="s">
+      <c r="A838" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J838" t="s">
@@ -38372,7 +38373,7 @@
       </c>
     </row>
     <row r="839" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A839" t="s">
+      <c r="A839" s="1" t="s">
         <v>956</v>
       </c>
       <c r="J839" t="s">
@@ -38383,7 +38384,7 @@
       </c>
     </row>
     <row r="840" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A840" t="s">
+      <c r="A840" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B840" t="s">
@@ -38418,7 +38419,7 @@
       </c>
     </row>
     <row r="841" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A841" t="s">
+      <c r="A841" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B841" t="s">
@@ -38453,7 +38454,7 @@
       </c>
     </row>
     <row r="842" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A842" t="s">
+      <c r="A842" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J842" t="s">
@@ -38464,7 +38465,7 @@
       </c>
     </row>
     <row r="843" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A843" t="s">
+      <c r="A843" s="1" t="s">
         <v>1535</v>
       </c>
       <c r="J843" t="s">
@@ -38475,7 +38476,7 @@
       </c>
     </row>
     <row r="844" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A844" t="s">
+      <c r="A844" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B844" t="s">
@@ -38507,7 +38508,7 @@
       </c>
     </row>
     <row r="845" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A845" t="s">
+      <c r="A845" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J845" t="s">
@@ -38518,7 +38519,7 @@
       </c>
     </row>
     <row r="846" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A846" t="s">
+      <c r="A846" s="1" t="s">
         <v>962</v>
       </c>
       <c r="J846" t="s">
@@ -38529,7 +38530,7 @@
       </c>
     </row>
     <row r="847" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A847" t="s">
+      <c r="A847" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B847" t="s">
@@ -38564,7 +38565,7 @@
       </c>
     </row>
     <row r="848" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A848" t="s">
+      <c r="A848" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B848" t="s">
@@ -38599,7 +38600,7 @@
       </c>
     </row>
     <row r="849" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A849" t="s">
+      <c r="A849" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J849" t="s">
@@ -38610,7 +38611,7 @@
       </c>
     </row>
     <row r="850" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A850" t="s">
+      <c r="A850" s="1" t="s">
         <v>969</v>
       </c>
       <c r="J850" t="s">
@@ -38621,7 +38622,7 @@
       </c>
     </row>
     <row r="851" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A851" t="s">
+      <c r="A851" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B851" t="s">
@@ -38656,7 +38657,7 @@
       </c>
     </row>
     <row r="852" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A852" t="s">
+      <c r="A852" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B852" t="s">
@@ -38688,7 +38689,7 @@
       </c>
     </row>
     <row r="853" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A853" t="s">
+      <c r="A853" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B853" t="s">
@@ -38720,7 +38721,7 @@
       </c>
     </row>
     <row r="854" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A854" t="s">
+      <c r="A854" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B854" t="s">
@@ -38755,7 +38756,7 @@
       </c>
     </row>
     <row r="855" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A855" t="s">
+      <c r="A855" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B855" t="s">
@@ -38790,7 +38791,7 @@
       </c>
     </row>
     <row r="856" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A856" t="s">
+      <c r="A856" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B856" t="s">
@@ -38825,7 +38826,7 @@
       </c>
     </row>
     <row r="857" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A857" t="s">
+      <c r="A857" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J857" t="s">
@@ -38836,7 +38837,7 @@
       </c>
     </row>
     <row r="858" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A858" t="s">
+      <c r="A858" s="1" t="s">
         <v>1540</v>
       </c>
       <c r="J858" t="s">
@@ -38847,7 +38848,7 @@
       </c>
     </row>
     <row r="859" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A859" t="s">
+      <c r="A859" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B859" t="s">
@@ -38879,7 +38880,7 @@
       </c>
     </row>
     <row r="860" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A860" t="s">
+      <c r="A860" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J860" t="s">
@@ -38890,7 +38891,7 @@
       </c>
     </row>
     <row r="861" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A861" t="s">
+      <c r="A861" s="1" t="s">
         <v>1545</v>
       </c>
       <c r="J861" t="s">
@@ -38901,7 +38902,7 @@
       </c>
     </row>
     <row r="862" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A862" t="s">
+      <c r="A862" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B862" t="s">
@@ -38936,7 +38937,7 @@
       </c>
     </row>
     <row r="863" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A863" t="s">
+      <c r="A863" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J863" t="s">
@@ -38947,7 +38948,7 @@
       </c>
     </row>
     <row r="864" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A864" t="s">
+      <c r="A864" s="1" t="s">
         <v>983</v>
       </c>
       <c r="J864" t="s">
@@ -38958,7 +38959,7 @@
       </c>
     </row>
     <row r="865" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A865" t="s">
+      <c r="A865" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B865" t="s">
@@ -38990,7 +38991,7 @@
       </c>
     </row>
     <row r="866" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A866" t="s">
+      <c r="A866" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B866" t="s">
@@ -39025,7 +39026,7 @@
       </c>
     </row>
     <row r="867" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A867" t="s">
+      <c r="A867" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B867" t="s">
@@ -39057,7 +39058,7 @@
       </c>
     </row>
     <row r="868" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A868" t="s">
+      <c r="A868" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B868" t="s">
@@ -39089,7 +39090,7 @@
       </c>
     </row>
     <row r="869" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A869" t="s">
+      <c r="A869" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J869" t="s">
@@ -39100,7 +39101,7 @@
       </c>
     </row>
     <row r="870" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A870" t="s">
+      <c r="A870" s="1" t="s">
         <v>1549</v>
       </c>
       <c r="J870" t="s">
@@ -39111,7 +39112,7 @@
       </c>
     </row>
     <row r="871" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A871" t="s">
+      <c r="A871" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B871" t="s">
@@ -39146,7 +39147,7 @@
       </c>
     </row>
     <row r="872" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A872" t="s">
+      <c r="A872" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J872" t="s">
@@ -39157,7 +39158,7 @@
       </c>
     </row>
     <row r="873" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A873" t="s">
+      <c r="A873" s="1" t="s">
         <v>994</v>
       </c>
       <c r="J873" t="s">
@@ -39168,7 +39169,7 @@
       </c>
     </row>
     <row r="874" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A874" t="s">
+      <c r="A874" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B874" t="s">
@@ -39203,7 +39204,7 @@
       </c>
     </row>
     <row r="875" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A875" t="s">
+      <c r="A875" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B875" t="s">
@@ -39235,7 +39236,7 @@
       </c>
     </row>
     <row r="876" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A876" t="s">
+      <c r="A876" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B876" t="s">
@@ -39267,7 +39268,7 @@
       </c>
     </row>
     <row r="877" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A877" t="s">
+      <c r="A877" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B877" t="s">
@@ -39299,7 +39300,7 @@
       </c>
     </row>
     <row r="878" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A878" t="s">
+      <c r="A878" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J878" t="s">
@@ -39310,7 +39311,7 @@
       </c>
     </row>
     <row r="879" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A879" t="s">
+      <c r="A879" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="J879" t="s">
@@ -39321,7 +39322,7 @@
       </c>
     </row>
     <row r="880" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A880" t="s">
+      <c r="A880" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B880" t="s">
@@ -39353,7 +39354,7 @@
       </c>
     </row>
     <row r="881" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A881" t="s">
+      <c r="A881" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J881" t="s">
@@ -39364,7 +39365,7 @@
       </c>
     </row>
     <row r="882" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A882" t="s">
+      <c r="A882" s="1" t="s">
         <v>1558</v>
       </c>
       <c r="J882" t="s">
@@ -39375,7 +39376,7 @@
       </c>
     </row>
     <row r="883" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A883" t="s">
+      <c r="A883" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B883" t="s">
@@ -39410,7 +39411,7 @@
       </c>
     </row>
     <row r="884" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A884" t="s">
+      <c r="A884" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J884" t="s">
@@ -39421,7 +39422,7 @@
       </c>
     </row>
     <row r="885" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A885" t="s">
+      <c r="A885" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="J885" t="s">
@@ -39432,7 +39433,7 @@
       </c>
     </row>
     <row r="886" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A886" t="s">
+      <c r="A886" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B886" t="s">
@@ -39464,7 +39465,7 @@
       </c>
     </row>
     <row r="887" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A887" t="s">
+      <c r="A887" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B887" t="s">
@@ -39499,7 +39500,7 @@
       </c>
     </row>
     <row r="888" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A888" t="s">
+      <c r="A888" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B888" t="s">
@@ -39534,7 +39535,7 @@
       </c>
     </row>
     <row r="889" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A889" t="s">
+      <c r="A889" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B889" t="s">
@@ -39566,7 +39567,7 @@
       </c>
     </row>
     <row r="890" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A890" t="s">
+      <c r="A890" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B890" t="s">
@@ -39601,7 +39602,7 @@
       </c>
     </row>
     <row r="891" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A891" t="s">
+      <c r="A891" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B891" t="s">
@@ -39633,7 +39634,7 @@
       </c>
     </row>
     <row r="892" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A892" t="s">
+      <c r="A892" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J892" t="s">
@@ -39644,17 +39645,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1048576 I1:I1048576">
+  <conditionalFormatting sqref="I1 G1:G1048576 I3:I1048576">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>G1&lt;&gt;F1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="I2">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B1=""</formula>
+      <formula>I2&lt;&gt;H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576 I1:I1048576">
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$C1=""</formula>
     </cfRule>
